--- a/Propeller Packages/APC_13x6/CdvsAlpha_RPM6000.xlsx
+++ b/Propeller Packages/APC_13x6/CdvsAlpha_RPM6000.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="38" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="42" uniqueCount="20">
   <si>
     <t>Alpha</t>
   </si>
@@ -118,7 +118,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL27"/>
+  <dimension ref="A1:AP27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -150,7 +150,7 @@
     <col min="24" max="24" width="7.5546875" customWidth="true"/>
     <col min="25" max="25" width="3.6640625" customWidth="true"/>
     <col min="26" max="26" width="7.5546875" customWidth="true"/>
-    <col min="27" max="27" width="3.6640625" customWidth="true"/>
+    <col min="27" max="27" width="3" customWidth="true"/>
     <col min="28" max="28" width="7.5546875" customWidth="true"/>
     <col min="29" max="29" width="3.6640625" customWidth="true"/>
     <col min="30" max="30" width="7.5546875" customWidth="true"/>
@@ -162,6 +162,10 @@
     <col min="36" max="36" width="7.5546875" customWidth="true"/>
     <col min="37" max="37" width="3.6640625" customWidth="true"/>
     <col min="38" max="38" width="7.5546875" customWidth="true"/>
+    <col min="39" max="39" width="3" customWidth="true"/>
+    <col min="40" max="40" width="7.5546875" customWidth="true"/>
+    <col min="41" max="41" width="3.6640625" customWidth="true"/>
+    <col min="42" max="42" width="7.5546875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -175,108 +179,120 @@
         <v>0</v>
       </c>
       <c r="D1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="0" t="s">
+      <c r="I1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="0" t="s">
+      <c r="K1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="0" t="s">
+      <c r="M1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="0" t="s">
+      <c r="O1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="P1" s="0" t="s">
+      <c r="S1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="R1" s="0" t="s">
+      <c r="U1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="V1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="S1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="0" t="s">
+      <c r="W1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="X1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="U1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="V1" s="0" t="s">
+      <c r="Y1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="W1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="X1" s="0" t="s">
+      <c r="AA1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="Y1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z1" s="0" t="s">
+      <c r="AC1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="AA1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB1" s="0" t="s">
+      <c r="AE1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="AC1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD1" s="0" t="s">
+      <c r="AG1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="AE1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF1" s="0" t="s">
+      <c r="AI1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="AG1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH1" s="0" t="s">
+      <c r="AK1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="AI1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ1" s="0" t="s">
+      <c r="AM1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="AK1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL1" s="0" t="s">
+      <c r="AO1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP1" s="0" t="s">
         <v>19</v>
       </c>
     </row>
@@ -285,115 +301,127 @@
         <v>-10</v>
       </c>
       <c r="B2" s="0">
-        <v>0.093149999999999997</v>
+        <v>0.20957000000000001</v>
       </c>
       <c r="C2" s="0">
         <v>-10</v>
       </c>
       <c r="D2" s="0">
-        <v>0.088120000000000004</v>
+        <v>0.15817999999999999</v>
       </c>
       <c r="E2" s="0">
         <v>-10</v>
       </c>
       <c r="F2" s="0">
-        <v>0.083790000000000003</v>
+        <v>0.12055</v>
       </c>
       <c r="G2" s="0">
         <v>-10</v>
       </c>
       <c r="H2" s="0">
-        <v>0.074560000000000001</v>
+        <v>0.10435999999999999</v>
       </c>
       <c r="I2" s="0">
         <v>-10</v>
       </c>
       <c r="J2" s="0">
-        <v>0.04895</v>
+        <v>0.09672</v>
       </c>
       <c r="K2" s="0">
         <v>-10</v>
       </c>
       <c r="L2" s="0">
-        <v>0.047629999999999999</v>
+        <v>0.096299999999999997</v>
       </c>
       <c r="M2" s="0">
         <v>-10</v>
       </c>
       <c r="N2" s="0">
-        <v>0.075929999999999998</v>
+        <v>0.088900000000000007</v>
       </c>
       <c r="O2" s="0">
         <v>-10</v>
       </c>
       <c r="P2" s="0">
-        <v>0.047789999999999999</v>
+        <v>0.091730000000000006</v>
       </c>
       <c r="Q2" s="0">
         <v>-10</v>
       </c>
       <c r="R2" s="0">
-        <v>0.081750000000000003</v>
+        <v>0.095909999999999995</v>
       </c>
       <c r="S2" s="0">
         <v>-10</v>
       </c>
       <c r="T2" s="0">
-        <v>0.08276</v>
+        <v>0.096189999999999998</v>
       </c>
       <c r="U2" s="0">
         <v>-10</v>
       </c>
       <c r="V2" s="0">
-        <v>0.087980000000000003</v>
+        <v>0.097320000000000004</v>
       </c>
       <c r="W2" s="0">
         <v>-10</v>
       </c>
       <c r="X2" s="0">
-        <v>0.08949</v>
+        <v>0.10142</v>
       </c>
       <c r="Y2" s="0">
         <v>-10</v>
       </c>
       <c r="Z2" s="0">
-        <v>0.091130000000000003</v>
+        <v>0.098369999999999999</v>
       </c>
       <c r="AA2" s="0">
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="AB2" s="0">
-        <v>0.097049999999999997</v>
+        <v>0.082000000000000003</v>
       </c>
       <c r="AC2" s="0">
         <v>-10</v>
       </c>
       <c r="AD2" s="0">
-        <v>0.10014000000000001</v>
+        <v>0.10756</v>
       </c>
       <c r="AE2" s="0">
         <v>-10</v>
       </c>
       <c r="AF2" s="0">
-        <v>0.10188999999999999</v>
+        <v>0.10793</v>
       </c>
       <c r="AG2" s="0">
         <v>-10</v>
       </c>
       <c r="AH2" s="0">
-        <v>0.10469000000000001</v>
+        <v>0.10896</v>
       </c>
       <c r="AI2" s="0">
         <v>-10</v>
       </c>
       <c r="AJ2" s="0">
-        <v>0.10821</v>
+        <v>0.10914</v>
       </c>
       <c r="AK2" s="0">
         <v>-10</v>
       </c>
       <c r="AL2" s="0">
-        <v>0.21238000000000001</v>
+        <v>0.1116</v>
+      </c>
+      <c r="AM2" s="0">
+        <v>-9</v>
+      </c>
+      <c r="AN2" s="0">
+        <v>0.10285</v>
+      </c>
+      <c r="AO2" s="0">
+        <v>-10</v>
+      </c>
+      <c r="AP2" s="0">
+        <v>0.14618999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -401,115 +429,127 @@
         <v>-9</v>
       </c>
       <c r="B3" s="0">
-        <v>0.068110000000000004</v>
+        <v>0.19825000000000001</v>
       </c>
       <c r="C3" s="0">
         <v>-9</v>
       </c>
       <c r="D3" s="0">
-        <v>0.053370000000000001</v>
+        <v>0.15032000000000001</v>
       </c>
       <c r="E3" s="0">
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="F3" s="0">
-        <v>0.047109999999999999</v>
+        <v>0.09783</v>
       </c>
       <c r="G3" s="0">
         <v>-9</v>
       </c>
       <c r="H3" s="0">
-        <v>0.043549999999999999</v>
+        <v>0.091060000000000002</v>
       </c>
       <c r="I3" s="0">
         <v>-9</v>
       </c>
       <c r="J3" s="0">
-        <v>0.038019999999999998</v>
+        <v>0.079869999999999997</v>
       </c>
       <c r="K3" s="0">
         <v>-9</v>
       </c>
       <c r="L3" s="0">
-        <v>0.035830000000000001</v>
+        <v>0.071730000000000002</v>
       </c>
       <c r="M3" s="0">
         <v>-9</v>
       </c>
       <c r="N3" s="0">
-        <v>0.03637</v>
+        <v>0.051799999999999999</v>
       </c>
       <c r="O3" s="0">
         <v>-9</v>
       </c>
       <c r="P3" s="0">
-        <v>0.036540000000000003</v>
+        <v>0.052569999999999999</v>
       </c>
       <c r="Q3" s="0">
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="R3" s="0">
-        <v>0.0385</v>
+        <v>0.037339999999999998</v>
       </c>
       <c r="S3" s="0">
         <v>-9</v>
       </c>
       <c r="T3" s="0">
-        <v>0.037999999999999999</v>
+        <v>0.071179999999999993</v>
       </c>
       <c r="U3" s="0">
         <v>-9</v>
       </c>
       <c r="V3" s="0">
-        <v>0.042160000000000003</v>
+        <v>0.072919999999999999</v>
       </c>
       <c r="W3" s="0">
         <v>-9</v>
       </c>
       <c r="X3" s="0">
-        <v>0.061240000000000003</v>
+        <v>0.078560000000000005</v>
       </c>
       <c r="Y3" s="0">
         <v>-9</v>
       </c>
       <c r="Z3" s="0">
-        <v>0.069169999999999995</v>
+        <v>0.078960000000000002</v>
       </c>
       <c r="AA3" s="0">
-        <v>-9</v>
+        <v>-7</v>
       </c>
       <c r="AB3" s="0">
-        <v>0.073400000000000007</v>
+        <v>0.031210000000000002</v>
       </c>
       <c r="AC3" s="0">
         <v>-9</v>
       </c>
       <c r="AD3" s="0">
-        <v>0.081119999999999998</v>
+        <v>0.087779999999999997</v>
       </c>
       <c r="AE3" s="0">
         <v>-9</v>
       </c>
       <c r="AF3" s="0">
-        <v>0.085620000000000002</v>
+        <v>0.092600000000000002</v>
       </c>
       <c r="AG3" s="0">
         <v>-9</v>
       </c>
       <c r="AH3" s="0">
-        <v>0.091679999999999998</v>
+        <v>0.09332</v>
       </c>
       <c r="AI3" s="0">
         <v>-9</v>
       </c>
       <c r="AJ3" s="0">
-        <v>0.095399999999999999</v>
+        <v>0.096360000000000001</v>
       </c>
       <c r="AK3" s="0">
         <v>-9</v>
       </c>
       <c r="AL3" s="0">
-        <v>0.20608000000000001</v>
+        <v>0.09987</v>
+      </c>
+      <c r="AM3" s="0">
+        <v>-8</v>
+      </c>
+      <c r="AN3" s="0">
+        <v>0.091060000000000002</v>
+      </c>
+      <c r="AO3" s="0">
+        <v>-9</v>
+      </c>
+      <c r="AP3" s="0">
+        <v>0.13839000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -517,115 +557,127 @@
         <v>-8</v>
       </c>
       <c r="B4" s="0">
-        <v>0.055039999999999999</v>
+        <v>0.18562999999999999</v>
       </c>
       <c r="C4" s="0">
         <v>-8</v>
       </c>
       <c r="D4" s="0">
-        <v>0.047190000000000003</v>
+        <v>0.14216000000000001</v>
       </c>
       <c r="E4" s="0">
-        <v>-8</v>
+        <v>-7</v>
       </c>
       <c r="F4" s="0">
-        <v>0.041540000000000001</v>
+        <v>0.074829999999999994</v>
       </c>
       <c r="G4" s="0">
         <v>-8</v>
       </c>
       <c r="H4" s="0">
-        <v>0.03771</v>
+        <v>0.064689999999999998</v>
       </c>
       <c r="I4" s="0">
         <v>-8</v>
       </c>
       <c r="J4" s="0">
-        <v>0.03354</v>
+        <v>0.053679999999999999</v>
       </c>
       <c r="K4" s="0">
         <v>-8</v>
       </c>
       <c r="L4" s="0">
-        <v>0.031370000000000002</v>
+        <v>0.047800000000000002</v>
       </c>
       <c r="M4" s="0">
         <v>-8</v>
       </c>
       <c r="N4" s="0">
-        <v>0.029909999999999999</v>
+        <v>0.041059999999999999</v>
       </c>
       <c r="O4" s="0">
         <v>-8</v>
       </c>
       <c r="P4" s="0">
-        <v>0.02988</v>
+        <v>0.038640000000000001</v>
       </c>
       <c r="Q4" s="0">
-        <v>-8</v>
+        <v>-7</v>
       </c>
       <c r="R4" s="0">
-        <v>0.02963</v>
+        <v>0.03065</v>
       </c>
       <c r="S4" s="0">
         <v>-8</v>
       </c>
       <c r="T4" s="0">
-        <v>0.030439999999999998</v>
+        <v>0.037629999999999997</v>
       </c>
       <c r="U4" s="0">
         <v>-8</v>
       </c>
       <c r="V4" s="0">
-        <v>0.030880000000000001</v>
+        <v>0.037240000000000002</v>
       </c>
       <c r="W4" s="0">
         <v>-8</v>
       </c>
       <c r="X4" s="0">
-        <v>0.032509999999999997</v>
+        <v>0.039609999999999999</v>
       </c>
       <c r="Y4" s="0">
         <v>-8</v>
       </c>
       <c r="Z4" s="0">
-        <v>0.036179999999999997</v>
+        <v>0.038289999999999998</v>
       </c>
       <c r="AA4" s="0">
-        <v>-8</v>
+        <v>-6</v>
       </c>
       <c r="AB4" s="0">
-        <v>0.039230000000000001</v>
+        <v>0.025930000000000002</v>
       </c>
       <c r="AC4" s="0">
-        <v>-8</v>
+        <v>-7</v>
       </c>
       <c r="AD4" s="0">
-        <v>0.047440000000000003</v>
+        <v>0.034000000000000002</v>
       </c>
       <c r="AE4" s="0">
         <v>-8</v>
       </c>
       <c r="AF4" s="0">
-        <v>0.062520000000000006</v>
+        <v>0.063729999999999995</v>
       </c>
       <c r="AG4" s="0">
         <v>-8</v>
       </c>
       <c r="AH4" s="0">
-        <v>0.071340000000000001</v>
+        <v>0.063289999999999999</v>
       </c>
       <c r="AI4" s="0">
         <v>-8</v>
       </c>
       <c r="AJ4" s="0">
-        <v>0.08054</v>
+        <v>0.079699999999999993</v>
       </c>
       <c r="AK4" s="0">
         <v>-8</v>
       </c>
       <c r="AL4" s="0">
-        <v>0.19988</v>
+        <v>0.085449999999999998</v>
+      </c>
+      <c r="AM4" s="0">
+        <v>-7</v>
+      </c>
+      <c r="AN4" s="0">
+        <v>0.075819999999999999</v>
+      </c>
+      <c r="AO4" s="0">
+        <v>-8</v>
+      </c>
+      <c r="AP4" s="0">
+        <v>0.13088</v>
       </c>
     </row>
     <row r="5">
@@ -633,115 +685,127 @@
         <v>-7</v>
       </c>
       <c r="B5" s="0">
-        <v>0.0511</v>
+        <v>0.17656</v>
       </c>
       <c r="C5" s="0">
         <v>-7</v>
       </c>
       <c r="D5" s="0">
-        <v>0.04292</v>
+        <v>0.13327</v>
       </c>
       <c r="E5" s="0">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="F5" s="0">
-        <v>0.03748</v>
+        <v>0.068510000000000001</v>
       </c>
       <c r="G5" s="0">
         <v>-7</v>
       </c>
       <c r="H5" s="0">
-        <v>0.034340000000000002</v>
+        <v>0.057840000000000003</v>
       </c>
       <c r="I5" s="0">
         <v>-7</v>
       </c>
       <c r="J5" s="0">
-        <v>0.030030000000000001</v>
+        <v>0.047219999999999998</v>
       </c>
       <c r="K5" s="0">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="L5" s="0">
-        <v>0.027470000000000001</v>
+        <v>0.03891</v>
       </c>
       <c r="M5" s="0">
         <v>-7</v>
       </c>
       <c r="N5" s="0">
-        <v>0.026190000000000001</v>
+        <v>0.03533</v>
       </c>
       <c r="O5" s="0">
         <v>-7</v>
       </c>
       <c r="P5" s="0">
-        <v>0.02537</v>
+        <v>0.032439999999999997</v>
       </c>
       <c r="Q5" s="0">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="R5" s="0">
-        <v>0.025239999999999999</v>
+        <v>0.026620000000000001</v>
       </c>
       <c r="S5" s="0">
         <v>-7</v>
       </c>
       <c r="T5" s="0">
-        <v>0.025159999999999998</v>
+        <v>0.029940000000000001</v>
       </c>
       <c r="U5" s="0">
         <v>-7</v>
       </c>
       <c r="V5" s="0">
-        <v>0.025680000000000001</v>
+        <v>0.02946</v>
       </c>
       <c r="W5" s="0">
         <v>-7</v>
       </c>
       <c r="X5" s="0">
-        <v>0.026450000000000001</v>
+        <v>0.029909999999999999</v>
       </c>
       <c r="Y5" s="0">
         <v>-7</v>
       </c>
       <c r="Z5" s="0">
-        <v>0.027369999999999999</v>
+        <v>0.030859999999999999</v>
       </c>
       <c r="AA5" s="0">
-        <v>-7</v>
+        <v>-5</v>
       </c>
       <c r="AB5" s="0">
-        <v>0.029839999999999999</v>
+        <v>0.022079999999999999</v>
       </c>
       <c r="AC5" s="0">
-        <v>-7</v>
+        <v>-5</v>
       </c>
       <c r="AD5" s="0">
-        <v>0.032559999999999999</v>
+        <v>0.022759999999999999</v>
       </c>
       <c r="AE5" s="0">
         <v>-7</v>
       </c>
       <c r="AF5" s="0">
-        <v>0.036929999999999998</v>
+        <v>0.038830000000000004</v>
       </c>
       <c r="AG5" s="0">
         <v>-7</v>
       </c>
       <c r="AH5" s="0">
-        <v>0.043790000000000003</v>
+        <v>0.040779999999999997</v>
       </c>
       <c r="AI5" s="0">
         <v>-7</v>
       </c>
       <c r="AJ5" s="0">
-        <v>0.057459999999999997</v>
+        <v>0.049090000000000002</v>
       </c>
       <c r="AK5" s="0">
         <v>-7</v>
       </c>
       <c r="AL5" s="0">
-        <v>0.19386999999999999</v>
+        <v>0.057970000000000001</v>
+      </c>
+      <c r="AM5" s="0">
+        <v>-6</v>
+      </c>
+      <c r="AN5" s="0">
+        <v>0.052299999999999999</v>
+      </c>
+      <c r="AO5" s="0">
+        <v>-7</v>
+      </c>
+      <c r="AP5" s="0">
+        <v>0.12363</v>
       </c>
     </row>
     <row r="6">
@@ -749,115 +813,127 @@
         <v>-6</v>
       </c>
       <c r="B6" s="0">
-        <v>0.048129999999999999</v>
+        <v>0.16693</v>
       </c>
       <c r="C6" s="0">
         <v>-6</v>
       </c>
       <c r="D6" s="0">
-        <v>0.040550000000000003</v>
+        <v>0.12084</v>
       </c>
       <c r="E6" s="0">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="F6" s="0">
-        <v>0.03492</v>
+        <v>0.064250000000000002</v>
       </c>
       <c r="G6" s="0">
         <v>-6</v>
       </c>
       <c r="H6" s="0">
-        <v>0.031789999999999999</v>
+        <v>0.051999999999999998</v>
       </c>
       <c r="I6" s="0">
         <v>-6</v>
       </c>
       <c r="J6" s="0">
-        <v>0.027480000000000001</v>
+        <v>0.043180000000000003</v>
       </c>
       <c r="K6" s="0">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="L6" s="0">
-        <v>0.024899999999999999</v>
+        <v>0.035139999999999998</v>
       </c>
       <c r="M6" s="0">
         <v>-6</v>
       </c>
       <c r="N6" s="0">
-        <v>0.023470000000000001</v>
+        <v>0.032079999999999998</v>
       </c>
       <c r="O6" s="0">
         <v>-6</v>
       </c>
       <c r="P6" s="0">
-        <v>0.02264</v>
+        <v>0.028369999999999999</v>
       </c>
       <c r="Q6" s="0">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="R6" s="0">
-        <v>0.022179999999999998</v>
+        <v>0.023900000000000001</v>
       </c>
       <c r="S6" s="0">
         <v>-6</v>
       </c>
       <c r="T6" s="0">
-        <v>0.02205</v>
+        <v>0.02555</v>
       </c>
       <c r="U6" s="0">
         <v>-6</v>
       </c>
       <c r="V6" s="0">
-        <v>0.022079999999999999</v>
+        <v>0.025000000000000001</v>
       </c>
       <c r="W6" s="0">
         <v>-6</v>
       </c>
       <c r="X6" s="0">
-        <v>0.022550000000000001</v>
+        <v>0.024809999999999999</v>
       </c>
       <c r="Y6" s="0">
         <v>-6</v>
       </c>
       <c r="Z6" s="0">
-        <v>0.023310000000000001</v>
+        <v>0.025010000000000001</v>
       </c>
       <c r="AA6" s="0">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="AB6" s="0">
-        <v>0.024250000000000001</v>
+        <v>0.019650000000000001</v>
       </c>
       <c r="AC6" s="0">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="AD6" s="0">
-        <v>0.02607</v>
+        <v>0.020129999999999999</v>
       </c>
       <c r="AE6" s="0">
         <v>-6</v>
       </c>
       <c r="AF6" s="0">
-        <v>0.028719999999999999</v>
+        <v>0.02861</v>
       </c>
       <c r="AG6" s="0">
         <v>-6</v>
       </c>
       <c r="AH6" s="0">
-        <v>0.032280000000000003</v>
+        <v>0.031969999999999999</v>
       </c>
       <c r="AI6" s="0">
         <v>-6</v>
       </c>
       <c r="AJ6" s="0">
-        <v>0.039809999999999998</v>
+        <v>0.034909999999999997</v>
       </c>
       <c r="AK6" s="0">
         <v>-6</v>
       </c>
       <c r="AL6" s="0">
-        <v>0.18815999999999999</v>
+        <v>0.041119999999999997</v>
+      </c>
+      <c r="AM6" s="0">
+        <v>-5</v>
+      </c>
+      <c r="AN6" s="0">
+        <v>0.039980000000000002</v>
+      </c>
+      <c r="AO6" s="0">
+        <v>-6</v>
+      </c>
+      <c r="AP6" s="0">
+        <v>0.1166</v>
       </c>
     </row>
     <row r="7">
@@ -865,115 +941,127 @@
         <v>-5</v>
       </c>
       <c r="B7" s="0">
-        <v>0.047129999999999998</v>
+        <v>0.15614</v>
       </c>
       <c r="C7" s="0">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="D7" s="0">
-        <v>0.039109999999999999</v>
+        <v>0.093100000000000002</v>
       </c>
       <c r="E7" s="0">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="F7" s="0">
-        <v>0.033320000000000002</v>
+        <v>0.0613</v>
       </c>
       <c r="G7" s="0">
         <v>-5</v>
       </c>
       <c r="H7" s="0">
-        <v>0.030089999999999999</v>
+        <v>0.049500000000000002</v>
       </c>
       <c r="I7" s="0">
         <v>-5</v>
       </c>
       <c r="J7" s="0">
-        <v>0.02563</v>
+        <v>0.042810000000000001</v>
       </c>
       <c r="K7" s="0">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="L7" s="0">
-        <v>0.023050000000000001</v>
+        <v>0.034880000000000001</v>
       </c>
       <c r="M7" s="0">
         <v>-5</v>
       </c>
       <c r="N7" s="0">
-        <v>0.021520000000000001</v>
+        <v>0.02938</v>
       </c>
       <c r="O7" s="0">
         <v>-5</v>
       </c>
       <c r="P7" s="0">
-        <v>0.020549999999999999</v>
+        <v>0.025930000000000002</v>
       </c>
       <c r="Q7" s="0">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="R7" s="0">
-        <v>0.020029999999999999</v>
+        <v>0.021669999999999998</v>
       </c>
       <c r="S7" s="0">
         <v>-5</v>
       </c>
       <c r="T7" s="0">
-        <v>0.019800000000000002</v>
+        <v>0.022589999999999999</v>
       </c>
       <c r="U7" s="0">
         <v>-5</v>
       </c>
       <c r="V7" s="0">
-        <v>0.01983</v>
+        <v>0.021999999999999999</v>
       </c>
       <c r="W7" s="0">
         <v>-5</v>
       </c>
       <c r="X7" s="0">
-        <v>0.02002</v>
+        <v>0.02171</v>
       </c>
       <c r="Y7" s="0">
         <v>-5</v>
       </c>
       <c r="Z7" s="0">
-        <v>0.02043</v>
+        <v>0.021739999999999999</v>
       </c>
       <c r="AA7" s="0">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="AB7" s="0">
-        <v>0.0212</v>
+        <v>0.01788</v>
       </c>
       <c r="AC7" s="0">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="AD7" s="0">
-        <v>0.022370000000000001</v>
+        <v>0.01821</v>
       </c>
       <c r="AE7" s="0">
         <v>-5</v>
       </c>
       <c r="AF7" s="0">
-        <v>0.02383</v>
+        <v>0.024060000000000002</v>
       </c>
       <c r="AG7" s="0">
         <v>-5</v>
       </c>
       <c r="AH7" s="0">
-        <v>0.02615</v>
+        <v>0.025420000000000002</v>
       </c>
       <c r="AI7" s="0">
         <v>-5</v>
       </c>
       <c r="AJ7" s="0">
-        <v>0.031480000000000001</v>
+        <v>0.028160000000000001</v>
       </c>
       <c r="AK7" s="0">
         <v>-5</v>
       </c>
       <c r="AL7" s="0">
-        <v>0.18307999999999999</v>
+        <v>0.031800000000000002</v>
+      </c>
+      <c r="AM7" s="0">
+        <v>-4</v>
+      </c>
+      <c r="AN7" s="0">
+        <v>0.031899999999999998</v>
+      </c>
+      <c r="AO7" s="0">
+        <v>-5</v>
+      </c>
+      <c r="AP7" s="0">
+        <v>0.10979</v>
       </c>
     </row>
     <row r="8">
@@ -981,115 +1069,127 @@
         <v>-4</v>
       </c>
       <c r="B8" s="0">
-        <v>0.047169999999999997</v>
+        <v>0.14487</v>
       </c>
       <c r="C8" s="0">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="D8" s="0">
-        <v>0.038859999999999999</v>
+        <v>0.086199999999999999</v>
       </c>
       <c r="E8" s="0">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="F8" s="0">
-        <v>0.032550000000000003</v>
+        <v>0.060609999999999997</v>
       </c>
       <c r="G8" s="0">
         <v>-4</v>
       </c>
       <c r="H8" s="0">
-        <v>0.029020000000000001</v>
+        <v>0.04906</v>
       </c>
       <c r="I8" s="0">
         <v>-4</v>
       </c>
       <c r="J8" s="0">
-        <v>0.024330000000000001</v>
+        <v>0.042000000000000003</v>
       </c>
       <c r="K8" s="0">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="L8" s="0">
-        <v>0.021729999999999999</v>
+        <v>0.032149999999999998</v>
       </c>
       <c r="M8" s="0">
         <v>-4</v>
       </c>
       <c r="N8" s="0">
-        <v>0.020080000000000001</v>
+        <v>0.027629999999999998</v>
       </c>
       <c r="O8" s="0">
         <v>-4</v>
       </c>
       <c r="P8" s="0">
-        <v>0.019099999999999999</v>
+        <v>0.023810000000000001</v>
       </c>
       <c r="Q8" s="0">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="R8" s="0">
-        <v>0.018519999999999998</v>
+        <v>0.0201</v>
       </c>
       <c r="S8" s="0">
         <v>-4</v>
       </c>
       <c r="T8" s="0">
-        <v>0.018239999999999999</v>
+        <v>0.02052</v>
       </c>
       <c r="U8" s="0">
         <v>-4</v>
       </c>
       <c r="V8" s="0">
-        <v>0.018169999999999999</v>
+        <v>0.019779999999999999</v>
       </c>
       <c r="W8" s="0">
         <v>-4</v>
       </c>
       <c r="X8" s="0">
-        <v>0.018280000000000001</v>
+        <v>0.01951</v>
       </c>
       <c r="Y8" s="0">
         <v>-4</v>
       </c>
       <c r="Z8" s="0">
-        <v>0.018589999999999999</v>
+        <v>0.01949</v>
       </c>
       <c r="AA8" s="0">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="AB8" s="0">
-        <v>0.019130000000000001</v>
+        <v>0.016459999999999999</v>
       </c>
       <c r="AC8" s="0">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="AD8" s="0">
-        <v>0.01993</v>
+        <v>0.01669</v>
       </c>
       <c r="AE8" s="0">
         <v>-4</v>
       </c>
       <c r="AF8" s="0">
-        <v>0.021190000000000001</v>
+        <v>0.020920000000000001</v>
       </c>
       <c r="AG8" s="0">
         <v>-4</v>
       </c>
       <c r="AH8" s="0">
-        <v>0.022939999999999999</v>
+        <v>0.022089999999999999</v>
       </c>
       <c r="AI8" s="0">
         <v>-4</v>
       </c>
       <c r="AJ8" s="0">
-        <v>0.027019999999999999</v>
+        <v>0.02383</v>
       </c>
       <c r="AK8" s="0">
         <v>-4</v>
       </c>
       <c r="AL8" s="0">
-        <v>0.17893999999999999</v>
+        <v>0.026450000000000001</v>
+      </c>
+      <c r="AM8" s="0">
+        <v>-3</v>
+      </c>
+      <c r="AN8" s="0">
+        <v>0.028049999999999999</v>
+      </c>
+      <c r="AO8" s="0">
+        <v>-4</v>
+      </c>
+      <c r="AP8" s="0">
+        <v>0.10314</v>
       </c>
     </row>
     <row r="9">
@@ -1097,115 +1197,127 @@
         <v>-3</v>
       </c>
       <c r="B9" s="0">
-        <v>0.047750000000000001</v>
+        <v>0.13202</v>
       </c>
       <c r="C9" s="0">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D9" s="0">
-        <v>0.039260000000000003</v>
+        <v>0.082470000000000002</v>
       </c>
       <c r="E9" s="0">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="F9" s="0">
-        <v>0.032399999999999998</v>
+        <v>0.061269999999999998</v>
       </c>
       <c r="G9" s="0">
         <v>-3</v>
       </c>
       <c r="H9" s="0">
-        <v>0.028479999999999998</v>
+        <v>0.049660000000000003</v>
       </c>
       <c r="I9" s="0">
         <v>-3</v>
       </c>
       <c r="J9" s="0">
-        <v>0.02343</v>
+        <v>0.040000000000000001</v>
       </c>
       <c r="K9" s="0">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="L9" s="0">
-        <v>0.02078</v>
+        <v>0.03159</v>
       </c>
       <c r="M9" s="0">
         <v>-3</v>
       </c>
       <c r="N9" s="0">
-        <v>0.01907</v>
+        <v>0.02656</v>
       </c>
       <c r="O9" s="0">
         <v>-3</v>
       </c>
       <c r="P9" s="0">
-        <v>0.01805</v>
+        <v>0.022380000000000001</v>
       </c>
       <c r="Q9" s="0">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="R9" s="0">
-        <v>0.017440000000000001</v>
+        <v>0.01899</v>
       </c>
       <c r="S9" s="0">
         <v>-3</v>
       </c>
       <c r="T9" s="0">
-        <v>0.017170000000000001</v>
+        <v>0.018890000000000001</v>
       </c>
       <c r="U9" s="0">
         <v>-3</v>
       </c>
       <c r="V9" s="0">
-        <v>0.01704</v>
+        <v>0.01822</v>
       </c>
       <c r="W9" s="0">
         <v>-3</v>
       </c>
       <c r="X9" s="0">
-        <v>0.017090000000000001</v>
+        <v>0.017850000000000001</v>
       </c>
       <c r="Y9" s="0">
         <v>-3</v>
       </c>
       <c r="Z9" s="0">
-        <v>0.01728</v>
+        <v>0.017670000000000002</v>
       </c>
       <c r="AA9" s="0">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AB9" s="0">
-        <v>0.01772</v>
+        <v>0.015270000000000001</v>
       </c>
       <c r="AC9" s="0">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AD9" s="0">
-        <v>0.018360000000000001</v>
+        <v>0.01545</v>
       </c>
       <c r="AE9" s="0">
         <v>-3</v>
       </c>
       <c r="AF9" s="0">
-        <v>0.019380000000000001</v>
+        <v>0.018749999999999999</v>
       </c>
       <c r="AG9" s="0">
         <v>-3</v>
       </c>
       <c r="AH9" s="0">
-        <v>0.020820000000000002</v>
+        <v>0.01983</v>
       </c>
       <c r="AI9" s="0">
         <v>-3</v>
       </c>
       <c r="AJ9" s="0">
-        <v>0.024320000000000001</v>
+        <v>0.021180000000000001</v>
       </c>
       <c r="AK9" s="0">
         <v>-3</v>
       </c>
       <c r="AL9" s="0">
-        <v>0.1757</v>
+        <v>0.02316</v>
+      </c>
+      <c r="AM9" s="0">
+        <v>-2</v>
+      </c>
+      <c r="AN9" s="0">
+        <v>0.025569999999999999</v>
+      </c>
+      <c r="AO9" s="0">
+        <v>-3</v>
+      </c>
+      <c r="AP9" s="0">
+        <v>0.096970000000000001</v>
       </c>
     </row>
     <row r="10">
@@ -1213,115 +1325,127 @@
         <v>-2</v>
       </c>
       <c r="B10" s="0">
-        <v>0.048710000000000003</v>
+        <v>0.12068</v>
       </c>
       <c r="C10" s="0">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D10" s="0">
-        <v>0.039870000000000003</v>
+        <v>0.080460000000000004</v>
       </c>
       <c r="E10" s="0">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="F10" s="0">
-        <v>0.032390000000000002</v>
+        <v>0.060589999999999998</v>
       </c>
       <c r="G10" s="0">
         <v>-2</v>
       </c>
       <c r="H10" s="0">
-        <v>0.028219999999999999</v>
+        <v>0.048939999999999997</v>
       </c>
       <c r="I10" s="0">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="J10" s="0">
-        <v>0.022759999999999999</v>
+        <v>0.040370000000000003</v>
       </c>
       <c r="K10" s="0">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="L10" s="0">
-        <v>0.019869999999999999</v>
+        <v>0.031710000000000002</v>
       </c>
       <c r="M10" s="0">
         <v>-2</v>
       </c>
       <c r="N10" s="0">
-        <v>0.018169999999999999</v>
+        <v>0.025329999999999998</v>
       </c>
       <c r="O10" s="0">
         <v>-2</v>
       </c>
       <c r="P10" s="0">
-        <v>0.01712</v>
+        <v>0.02121</v>
       </c>
       <c r="Q10" s="0">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="R10" s="0">
-        <v>0.01653</v>
+        <v>0.018089999999999999</v>
       </c>
       <c r="S10" s="0">
         <v>-2</v>
       </c>
       <c r="T10" s="0">
-        <v>0.01626</v>
+        <v>0.017670000000000002</v>
       </c>
       <c r="U10" s="0">
         <v>-2</v>
       </c>
       <c r="V10" s="0">
-        <v>0.016129999999999999</v>
+        <v>0.016899999999999998</v>
       </c>
       <c r="W10" s="0">
         <v>-2</v>
       </c>
       <c r="X10" s="0">
-        <v>0.016150000000000001</v>
+        <v>0.01651</v>
       </c>
       <c r="Y10" s="0">
         <v>-2</v>
       </c>
       <c r="Z10" s="0">
-        <v>0.016310000000000002</v>
+        <v>0.01636</v>
       </c>
       <c r="AA10" s="0">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="AB10" s="0">
-        <v>0.016660000000000001</v>
+        <v>0.014109999999999999</v>
       </c>
       <c r="AC10" s="0">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AD10" s="0">
-        <v>0.017219999999999999</v>
+        <v>0.01406</v>
       </c>
       <c r="AE10" s="0">
         <v>-2</v>
       </c>
       <c r="AF10" s="0">
-        <v>0.018069999999999999</v>
+        <v>0.01719</v>
       </c>
       <c r="AG10" s="0">
         <v>-2</v>
       </c>
       <c r="AH10" s="0">
-        <v>0.019349999999999999</v>
+        <v>0.017950000000000001</v>
       </c>
       <c r="AI10" s="0">
         <v>-2</v>
       </c>
       <c r="AJ10" s="0">
-        <v>0.02249</v>
+        <v>0.019290000000000002</v>
       </c>
       <c r="AK10" s="0">
         <v>-2</v>
       </c>
       <c r="AL10" s="0">
-        <v>0.17321</v>
+        <v>0.021090000000000001</v>
+      </c>
+      <c r="AM10" s="0">
+        <v>-1</v>
+      </c>
+      <c r="AN10" s="0">
+        <v>0.02332</v>
+      </c>
+      <c r="AO10" s="0">
+        <v>-2</v>
+      </c>
+      <c r="AP10" s="0">
+        <v>0.092999999999999999</v>
       </c>
     </row>
     <row r="11">
@@ -1329,115 +1453,127 @@
         <v>-1</v>
       </c>
       <c r="B11" s="0">
-        <v>0.048489999999999998</v>
+        <v>0.11271</v>
       </c>
       <c r="C11" s="0">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>0.039230000000000001</v>
+        <v>0.079490000000000005</v>
       </c>
       <c r="E11" s="0">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="0">
-        <v>0.033410000000000002</v>
+        <v>0.060080000000000001</v>
       </c>
       <c r="G11" s="0">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H11" s="0">
-        <v>0.0276</v>
+        <v>0.050410000000000004</v>
       </c>
       <c r="I11" s="0">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J11" s="0">
-        <v>0.02231</v>
+        <v>0.04018</v>
       </c>
       <c r="K11" s="0">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="L11" s="0">
-        <v>0.01942</v>
+        <v>0.034259999999999999</v>
       </c>
       <c r="M11" s="0">
         <v>-1</v>
       </c>
       <c r="N11" s="0">
-        <v>0.01764</v>
+        <v>0.02376</v>
       </c>
       <c r="O11" s="0">
         <v>-1</v>
       </c>
       <c r="P11" s="0">
-        <v>0.01653</v>
+        <v>0.020209999999999999</v>
       </c>
       <c r="Q11" s="0">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R11" s="0">
-        <v>0.015879999999999998</v>
+        <v>0.01703</v>
       </c>
       <c r="S11" s="0">
         <v>-1</v>
       </c>
       <c r="T11" s="0">
-        <v>0.015559999999999999</v>
+        <v>0.016719999999999999</v>
       </c>
       <c r="U11" s="0">
         <v>-1</v>
       </c>
       <c r="V11" s="0">
-        <v>0.0154</v>
+        <v>0.01592</v>
       </c>
       <c r="W11" s="0">
         <v>-1</v>
       </c>
       <c r="X11" s="0">
-        <v>0.01537</v>
+        <v>0.01554</v>
       </c>
       <c r="Y11" s="0">
         <v>-1</v>
       </c>
       <c r="Z11" s="0">
-        <v>0.015469999999999999</v>
+        <v>0.01533</v>
       </c>
       <c r="AA11" s="0">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AB11" s="0">
-        <v>0.015740000000000001</v>
+        <v>0.014540000000000001</v>
       </c>
       <c r="AC11" s="0">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD11" s="0">
-        <v>0.016240000000000001</v>
+        <v>0.014239999999999999</v>
       </c>
       <c r="AE11" s="0">
         <v>-1</v>
       </c>
       <c r="AF11" s="0">
-        <v>0.017010000000000001</v>
+        <v>0.01575</v>
       </c>
       <c r="AG11" s="0">
         <v>-1</v>
       </c>
       <c r="AH11" s="0">
-        <v>0.01822</v>
+        <v>0.016410000000000001</v>
       </c>
       <c r="AI11" s="0">
         <v>-1</v>
       </c>
       <c r="AJ11" s="0">
-        <v>0.021260000000000001</v>
+        <v>0.017399999999999999</v>
       </c>
       <c r="AK11" s="0">
         <v>-1</v>
       </c>
       <c r="AL11" s="0">
-        <v>0.17155000000000001</v>
+        <v>0.019060000000000001</v>
+      </c>
+      <c r="AM11" s="0">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="0">
+        <v>0.02179</v>
+      </c>
+      <c r="AO11" s="0">
+        <v>-1</v>
+      </c>
+      <c r="AP11" s="0">
+        <v>0.091749999999999998</v>
       </c>
     </row>
     <row r="12">
@@ -1445,115 +1581,127 @@
         <v>0</v>
       </c>
       <c r="B12" s="0">
-        <v>0.048930000000000001</v>
+        <v>0.10829999999999999</v>
       </c>
       <c r="C12" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="0">
-        <v>0.041700000000000001</v>
+        <v>0.080780000000000005</v>
       </c>
       <c r="E12" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F12" s="0">
-        <v>0.03363</v>
+        <v>0.062770000000000006</v>
       </c>
       <c r="G12" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="0">
-        <v>0.0287</v>
+        <v>0.050459999999999998</v>
       </c>
       <c r="I12" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" s="0">
-        <v>0.022450000000000001</v>
+        <v>0.039719999999999998</v>
       </c>
       <c r="K12" s="0">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L12" s="0">
-        <v>0.01924</v>
+        <v>0.03687</v>
       </c>
       <c r="M12" s="0">
         <v>0</v>
       </c>
       <c r="N12" s="0">
-        <v>0.017350000000000001</v>
+        <v>0.02375</v>
       </c>
       <c r="O12" s="0">
         <v>0</v>
       </c>
       <c r="P12" s="0">
-        <v>0.01617</v>
+        <v>0.019539999999999998</v>
       </c>
       <c r="Q12" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" s="0">
-        <v>0.015469999999999999</v>
+        <v>0.0167</v>
       </c>
       <c r="S12" s="0">
         <v>0</v>
       </c>
       <c r="T12" s="0">
-        <v>0.015140000000000001</v>
+        <v>0.0155</v>
       </c>
       <c r="U12" s="0">
         <v>0</v>
       </c>
       <c r="V12" s="0">
-        <v>0.014930000000000001</v>
+        <v>0.01465</v>
       </c>
       <c r="W12" s="0">
+        <v>0</v>
+      </c>
+      <c r="X12" s="0">
+        <v>0.014250000000000001</v>
+      </c>
+      <c r="Y12" s="0">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="0">
+        <v>0.014019999999999999</v>
+      </c>
+      <c r="AA12" s="0">
+        <v>3</v>
+      </c>
+      <c r="AB12" s="0">
+        <v>0.01519</v>
+      </c>
+      <c r="AC12" s="0">
+        <v>2</v>
+      </c>
+      <c r="AD12" s="0">
+        <v>0.01468</v>
+      </c>
+      <c r="AE12" s="0">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="0">
+        <v>0.0144</v>
+      </c>
+      <c r="AG12" s="0">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="0">
+        <v>0.014959999999999999</v>
+      </c>
+      <c r="AI12" s="0">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="0">
+        <v>0.015910000000000001</v>
+      </c>
+      <c r="AK12" s="0">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="0">
+        <v>0.017500000000000002</v>
+      </c>
+      <c r="AM12" s="0">
         <v>1</v>
       </c>
-      <c r="X12" s="0">
-        <v>0.013979999999999999</v>
-      </c>
-      <c r="Y12" s="0">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="0">
-        <v>0.01482</v>
-      </c>
-      <c r="AA12" s="0">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="0">
-        <v>0.01494</v>
-      </c>
-      <c r="AC12" s="0">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="0">
-        <v>0.015180000000000001</v>
-      </c>
-      <c r="AE12" s="0">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="0">
-        <v>0.01562</v>
-      </c>
-      <c r="AG12" s="0">
-        <v>0</v>
-      </c>
-      <c r="AH12" s="0">
-        <v>0.016469999999999999</v>
-      </c>
-      <c r="AI12" s="0">
-        <v>0</v>
-      </c>
-      <c r="AJ12" s="0">
-        <v>0.019359999999999999</v>
-      </c>
-      <c r="AK12" s="0">
-        <v>0</v>
-      </c>
-      <c r="AL12" s="0">
-        <v>0.17072999999999999</v>
+      <c r="AN12" s="0">
+        <v>0.021989999999999999</v>
+      </c>
+      <c r="AO12" s="0">
+        <v>0</v>
+      </c>
+      <c r="AP12" s="0">
+        <v>0.092249999999999999</v>
       </c>
     </row>
     <row r="13">
@@ -1561,115 +1709,127 @@
         <v>1</v>
       </c>
       <c r="B13" s="0">
-        <v>0.052949999999999997</v>
+        <v>0.10695</v>
       </c>
       <c r="C13" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" s="0">
-        <v>0.043090000000000003</v>
+        <v>0.082439999999999999</v>
       </c>
       <c r="E13" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13" s="0">
-        <v>0.035799999999999999</v>
+        <v>0.064219999999999999</v>
       </c>
       <c r="G13" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H13" s="0">
-        <v>0.0292</v>
+        <v>0.052179999999999997</v>
       </c>
       <c r="I13" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J13" s="0">
-        <v>0.022360000000000001</v>
+        <v>0.041119999999999997</v>
       </c>
       <c r="K13" s="0">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L13" s="0">
-        <v>0.018720000000000001</v>
+        <v>0.03857</v>
       </c>
       <c r="M13" s="0">
         <v>1</v>
       </c>
       <c r="N13" s="0">
-        <v>0.01652</v>
+        <v>0.0224</v>
       </c>
       <c r="O13" s="0">
         <v>1</v>
       </c>
       <c r="P13" s="0">
-        <v>0.01524</v>
+        <v>0.018720000000000001</v>
       </c>
       <c r="Q13" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R13" s="0">
-        <v>0.014540000000000001</v>
+        <v>0.017149999999999999</v>
       </c>
       <c r="S13" s="0">
         <v>1</v>
       </c>
       <c r="T13" s="0">
-        <v>0.01421</v>
+        <v>0.015429999999999999</v>
       </c>
       <c r="U13" s="0">
         <v>1</v>
       </c>
       <c r="V13" s="0">
-        <v>0.014030000000000001</v>
+        <v>0.01469</v>
       </c>
       <c r="W13" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X13" s="0">
-        <v>0.014579999999999999</v>
+        <v>0.014319999999999999</v>
       </c>
       <c r="Y13" s="0">
         <v>1</v>
       </c>
       <c r="Z13" s="0">
-        <v>0.014080000000000001</v>
+        <v>0.01413</v>
       </c>
       <c r="AA13" s="0">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AB13" s="0">
-        <v>0.01434</v>
+        <v>0.016140000000000002</v>
       </c>
       <c r="AC13" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD13" s="0">
-        <v>0.014800000000000001</v>
+        <v>0.01533</v>
       </c>
       <c r="AE13" s="0">
         <v>1</v>
       </c>
       <c r="AF13" s="0">
-        <v>0.01554</v>
+        <v>0.014579999999999999</v>
       </c>
       <c r="AG13" s="0">
         <v>1</v>
       </c>
       <c r="AH13" s="0">
-        <v>0.016670000000000001</v>
+        <v>0.01521</v>
       </c>
       <c r="AI13" s="0">
         <v>1</v>
       </c>
       <c r="AJ13" s="0">
-        <v>0.019740000000000001</v>
+        <v>0.016150000000000001</v>
       </c>
       <c r="AK13" s="0">
         <v>1</v>
       </c>
       <c r="AL13" s="0">
-        <v>0.17076</v>
+        <v>0.01763</v>
+      </c>
+      <c r="AM13" s="0">
+        <v>2</v>
+      </c>
+      <c r="AN13" s="0">
+        <v>0.022290000000000001</v>
+      </c>
+      <c r="AO13" s="0">
+        <v>1</v>
+      </c>
+      <c r="AP13" s="0">
+        <v>0.093990000000000004</v>
       </c>
     </row>
     <row r="14">
@@ -1677,115 +1837,127 @@
         <v>2</v>
       </c>
       <c r="B14" s="0">
-        <v>0.054670000000000003</v>
+        <v>0.10781</v>
       </c>
       <c r="C14" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" s="0">
-        <v>0.04614</v>
+        <v>0.086730000000000002</v>
       </c>
       <c r="E14" s="0">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F14" s="0">
-        <v>0.037039999999999997</v>
+        <v>0.07084</v>
       </c>
       <c r="G14" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H14" s="0">
-        <v>0.031099999999999999</v>
+        <v>0.053080000000000002</v>
       </c>
       <c r="I14" s="0">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J14" s="0">
-        <v>0.022259999999999999</v>
+        <v>0.055030000000000003</v>
       </c>
       <c r="K14" s="0">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L14" s="0">
-        <v>0.01882</v>
+        <v>0.042700000000000002</v>
       </c>
       <c r="M14" s="0">
         <v>2</v>
       </c>
       <c r="N14" s="0">
-        <v>0.01694</v>
+        <v>0.023120000000000002</v>
       </c>
       <c r="O14" s="0">
         <v>2</v>
       </c>
       <c r="P14" s="0">
-        <v>0.015769999999999999</v>
+        <v>0.019210000000000001</v>
       </c>
       <c r="Q14" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R14" s="0">
-        <v>0.01511</v>
+        <v>0.01779</v>
       </c>
       <c r="S14" s="0">
         <v>2</v>
       </c>
       <c r="T14" s="0">
-        <v>0.014789999999999999</v>
+        <v>0.015869999999999999</v>
       </c>
       <c r="U14" s="0">
         <v>2</v>
       </c>
       <c r="V14" s="0">
-        <v>0.014619999999999999</v>
+        <v>0.015100000000000001</v>
       </c>
       <c r="W14" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X14" s="0">
-        <v>0.01545</v>
+        <v>0.01474</v>
       </c>
       <c r="Y14" s="0">
         <v>2</v>
       </c>
       <c r="Z14" s="0">
-        <v>0.01468</v>
+        <v>0.01457</v>
       </c>
       <c r="AA14" s="0">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AB14" s="0">
-        <v>0.01494</v>
+        <v>0.017430000000000001</v>
       </c>
       <c r="AC14" s="0">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AD14" s="0">
-        <v>0.01542</v>
+        <v>0.016279999999999999</v>
       </c>
       <c r="AE14" s="0">
         <v>2</v>
       </c>
       <c r="AF14" s="0">
-        <v>0.016160000000000001</v>
+        <v>0.01504</v>
       </c>
       <c r="AG14" s="0">
         <v>2</v>
       </c>
       <c r="AH14" s="0">
-        <v>0.017309999999999999</v>
+        <v>0.015640000000000001</v>
       </c>
       <c r="AI14" s="0">
         <v>2</v>
       </c>
       <c r="AJ14" s="0">
-        <v>0.020410000000000001</v>
+        <v>0.016570000000000001</v>
       </c>
       <c r="AK14" s="0">
         <v>2</v>
       </c>
       <c r="AL14" s="0">
-        <v>0.17165</v>
+        <v>0.018010000000000002</v>
+      </c>
+      <c r="AM14" s="0">
+        <v>3</v>
+      </c>
+      <c r="AN14" s="0">
+        <v>0.022689999999999998</v>
+      </c>
+      <c r="AO14" s="0">
+        <v>2</v>
+      </c>
+      <c r="AP14" s="0">
+        <v>0.096780000000000005</v>
       </c>
     </row>
     <row r="15">
@@ -1793,115 +1965,127 @@
         <v>3</v>
       </c>
       <c r="B15" s="0">
-        <v>0.059040000000000002</v>
+        <v>0.11021</v>
       </c>
       <c r="C15" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" s="0">
-        <v>0.047820000000000001</v>
+        <v>0.093530000000000002</v>
       </c>
       <c r="E15" s="0">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F15" s="0">
-        <v>0.038670000000000003</v>
+        <v>0.075469999999999996</v>
       </c>
       <c r="G15" s="0">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H15" s="0">
-        <v>0.033820000000000003</v>
+        <v>0.12959000000000001</v>
       </c>
       <c r="I15" s="0">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J15" s="0">
-        <v>0.02358</v>
+        <v>0.087580000000000005</v>
       </c>
       <c r="K15" s="0">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="L15" s="0">
-        <v>0.019779999999999999</v>
+        <v>0.04657</v>
       </c>
       <c r="M15" s="0">
         <v>3</v>
       </c>
       <c r="N15" s="0">
-        <v>0.017819999999999999</v>
+        <v>0.02383</v>
       </c>
       <c r="O15" s="0">
         <v>3</v>
       </c>
       <c r="P15" s="0">
-        <v>0.016639999999999999</v>
+        <v>0.01984</v>
       </c>
       <c r="Q15" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R15" s="0">
-        <v>0.015959999999999999</v>
+        <v>0.01866</v>
       </c>
       <c r="S15" s="0">
         <v>3</v>
       </c>
       <c r="T15" s="0">
-        <v>0.015650000000000001</v>
+        <v>0.016480000000000002</v>
       </c>
       <c r="U15" s="0">
         <v>3</v>
       </c>
       <c r="V15" s="0">
-        <v>0.01549</v>
+        <v>0.015740000000000001</v>
       </c>
       <c r="W15" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X15" s="0">
-        <v>0.016619999999999999</v>
+        <v>0.01538</v>
       </c>
       <c r="Y15" s="0">
         <v>3</v>
       </c>
       <c r="Z15" s="0">
-        <v>0.015559999999999999</v>
+        <v>0.01521</v>
       </c>
       <c r="AA15" s="0">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AB15" s="0">
-        <v>0.01583</v>
+        <v>0.019009999999999999</v>
       </c>
       <c r="AC15" s="0">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AD15" s="0">
-        <v>0.016299999999999999</v>
+        <v>0.017590000000000001</v>
       </c>
       <c r="AE15" s="0">
         <v>3</v>
       </c>
       <c r="AF15" s="0">
-        <v>0.017049999999999999</v>
+        <v>0.01566</v>
       </c>
       <c r="AG15" s="0">
         <v>3</v>
       </c>
       <c r="AH15" s="0">
-        <v>0.018200000000000001</v>
+        <v>0.01626</v>
       </c>
       <c r="AI15" s="0">
         <v>3</v>
       </c>
       <c r="AJ15" s="0">
-        <v>0.02128</v>
+        <v>0.017170000000000001</v>
       </c>
       <c r="AK15" s="0">
         <v>3</v>
       </c>
       <c r="AL15" s="0">
-        <v>0.17344000000000001</v>
+        <v>0.018630000000000001</v>
+      </c>
+      <c r="AM15" s="0">
+        <v>4</v>
+      </c>
+      <c r="AN15" s="0">
+        <v>0.02351</v>
+      </c>
+      <c r="AO15" s="0">
+        <v>3</v>
+      </c>
+      <c r="AP15" s="0">
+        <v>0.10052999999999999</v>
       </c>
     </row>
     <row r="16">
@@ -1909,115 +2093,127 @@
         <v>4</v>
       </c>
       <c r="B16" s="0">
-        <v>0.060260000000000001</v>
+        <v>0.11788</v>
       </c>
       <c r="C16" s="0">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" s="0">
-        <v>0.050799999999999998</v>
+        <v>0.10072</v>
       </c>
       <c r="E16" s="0">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F16" s="0">
-        <v>0.041450000000000001</v>
+        <v>0.082339999999999997</v>
       </c>
       <c r="G16" s="0">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H16" s="0">
-        <v>0.037100000000000001</v>
+        <v>0.13955999999999999</v>
       </c>
       <c r="I16" s="0">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J16" s="0">
-        <v>0.025489999999999999</v>
+        <v>0.13103000000000001</v>
       </c>
       <c r="K16" s="0">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="L16" s="0">
-        <v>0.021229999999999999</v>
+        <v>0.052830000000000002</v>
       </c>
       <c r="M16" s="0">
         <v>4</v>
       </c>
       <c r="N16" s="0">
-        <v>0.019019999999999999</v>
+        <v>0.024969999999999999</v>
       </c>
       <c r="O16" s="0">
         <v>4</v>
       </c>
       <c r="P16" s="0">
-        <v>0.01779</v>
+        <v>0.02085</v>
       </c>
       <c r="Q16" s="0">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R16" s="0">
-        <v>0.01712</v>
+        <v>0.019900000000000001</v>
       </c>
       <c r="S16" s="0">
         <v>4</v>
       </c>
       <c r="T16" s="0">
-        <v>0.016789999999999999</v>
+        <v>0.01736</v>
       </c>
       <c r="U16" s="0">
         <v>4</v>
       </c>
       <c r="V16" s="0">
-        <v>0.016629999999999999</v>
+        <v>0.016639999999999999</v>
       </c>
       <c r="W16" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X16" s="0">
-        <v>0.018010000000000002</v>
+        <v>0.016310000000000002</v>
       </c>
       <c r="Y16" s="0">
         <v>4</v>
       </c>
       <c r="Z16" s="0">
-        <v>0.016729999999999998</v>
+        <v>0.016150000000000001</v>
       </c>
       <c r="AA16" s="0">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AB16" s="0">
-        <v>0.017010000000000001</v>
+        <v>0.020820000000000002</v>
       </c>
       <c r="AC16" s="0">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AD16" s="0">
-        <v>0.017500000000000002</v>
+        <v>0.019189999999999999</v>
       </c>
       <c r="AE16" s="0">
         <v>4</v>
       </c>
       <c r="AF16" s="0">
-        <v>0.018249999999999999</v>
+        <v>0.016619999999999999</v>
       </c>
       <c r="AG16" s="0">
         <v>4</v>
       </c>
       <c r="AH16" s="0">
-        <v>0.019429999999999999</v>
+        <v>0.01719</v>
       </c>
       <c r="AI16" s="0">
         <v>4</v>
       </c>
       <c r="AJ16" s="0">
-        <v>0.02256</v>
+        <v>0.018079999999999999</v>
       </c>
       <c r="AK16" s="0">
         <v>4</v>
       </c>
       <c r="AL16" s="0">
-        <v>0.17606</v>
+        <v>0.01951</v>
+      </c>
+      <c r="AM16" s="0">
+        <v>5</v>
+      </c>
+      <c r="AN16" s="0">
+        <v>0.024750000000000001</v>
+      </c>
+      <c r="AO16" s="0">
+        <v>4</v>
+      </c>
+      <c r="AP16" s="0">
+        <v>0.10523</v>
       </c>
     </row>
     <row r="17">
@@ -2025,115 +2221,127 @@
         <v>5</v>
       </c>
       <c r="B17" s="0">
-        <v>0.065689999999999998</v>
+        <v>0.12523000000000001</v>
       </c>
       <c r="C17" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D17" s="0">
-        <v>0.053460000000000001</v>
+        <v>0.10919</v>
       </c>
       <c r="E17" s="0">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F17" s="0">
-        <v>0.044650000000000002</v>
+        <v>0.091189999999999993</v>
       </c>
       <c r="G17" s="0">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H17" s="0">
-        <v>0.040379999999999999</v>
+        <v>0.15192</v>
       </c>
       <c r="I17" s="0">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="J17" s="0">
-        <v>0.027910000000000001</v>
+        <v>0.13702</v>
       </c>
       <c r="K17" s="0">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L17" s="0">
-        <v>0.023099999999999999</v>
+        <v>0.064579999999999999</v>
       </c>
       <c r="M17" s="0">
         <v>5</v>
       </c>
       <c r="N17" s="0">
-        <v>0.020590000000000001</v>
+        <v>0.026720000000000001</v>
       </c>
       <c r="O17" s="0">
         <v>5</v>
       </c>
       <c r="P17" s="0">
-        <v>0.019210000000000001</v>
+        <v>0.022210000000000001</v>
       </c>
       <c r="Q17" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R17" s="0">
-        <v>0.018499999999999999</v>
+        <v>0.02154</v>
       </c>
       <c r="S17" s="0">
         <v>5</v>
       </c>
       <c r="T17" s="0">
-        <v>0.018190000000000001</v>
+        <v>0.018610000000000002</v>
       </c>
       <c r="U17" s="0">
         <v>5</v>
       </c>
       <c r="V17" s="0">
-        <v>0.01804</v>
+        <v>0.01789</v>
       </c>
       <c r="W17" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X17" s="0">
-        <v>0.019550000000000001</v>
+        <v>0.017569999999999999</v>
       </c>
       <c r="Y17" s="0">
         <v>5</v>
       </c>
       <c r="Z17" s="0">
-        <v>0.01813</v>
+        <v>0.017420000000000001</v>
       </c>
       <c r="AA17" s="0">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AB17" s="0">
-        <v>0.018429999999999999</v>
+        <v>0.022859999999999998</v>
       </c>
       <c r="AC17" s="0">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AD17" s="0">
-        <v>0.018950000000000002</v>
+        <v>0.02104</v>
       </c>
       <c r="AE17" s="0">
         <v>5</v>
       </c>
       <c r="AF17" s="0">
-        <v>0.01976</v>
+        <v>0.017940000000000001</v>
       </c>
       <c r="AG17" s="0">
         <v>5</v>
       </c>
       <c r="AH17" s="0">
-        <v>0.021000000000000001</v>
+        <v>0.018530000000000001</v>
       </c>
       <c r="AI17" s="0">
         <v>5</v>
       </c>
       <c r="AJ17" s="0">
-        <v>0.024250000000000001</v>
+        <v>0.019460000000000002</v>
       </c>
       <c r="AK17" s="0">
         <v>5</v>
       </c>
       <c r="AL17" s="0">
-        <v>0.17943000000000001</v>
+        <v>0.02086</v>
+      </c>
+      <c r="AM17" s="0">
+        <v>6</v>
+      </c>
+      <c r="AN17" s="0">
+        <v>0.026800000000000001</v>
+      </c>
+      <c r="AO17" s="0">
+        <v>5</v>
+      </c>
+      <c r="AP17" s="0">
+        <v>0.11083999999999999</v>
       </c>
     </row>
     <row r="18">
@@ -2141,115 +2349,127 @@
         <v>6</v>
       </c>
       <c r="B18" s="0">
-        <v>0.070720000000000005</v>
+        <v>0.13158</v>
       </c>
       <c r="C18" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D18" s="0">
-        <v>0.058160000000000003</v>
+        <v>0.11774999999999999</v>
       </c>
       <c r="E18" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F18" s="0">
-        <v>0.04811</v>
+        <v>0.10352</v>
       </c>
       <c r="G18" s="0">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H18" s="0">
-        <v>0.04403</v>
+        <v>0.16181000000000001</v>
       </c>
       <c r="I18" s="0">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="J18" s="0">
-        <v>0.03074</v>
+        <v>0.14975</v>
       </c>
       <c r="K18" s="0">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="L18" s="0">
-        <v>0.02537</v>
+        <v>0.065369999999999998</v>
       </c>
       <c r="M18" s="0">
         <v>6</v>
       </c>
       <c r="N18" s="0">
-        <v>0.022509999999999999</v>
+        <v>0.028740000000000002</v>
       </c>
       <c r="O18" s="0">
         <v>6</v>
       </c>
       <c r="P18" s="0">
-        <v>0.020920000000000001</v>
+        <v>0.023990000000000001</v>
       </c>
       <c r="Q18" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R18" s="0">
-        <v>0.02009</v>
+        <v>0.023470000000000001</v>
       </c>
       <c r="S18" s="0">
         <v>6</v>
       </c>
       <c r="T18" s="0">
-        <v>0.019740000000000001</v>
+        <v>0.020160000000000001</v>
       </c>
       <c r="U18" s="0">
         <v>6</v>
       </c>
       <c r="V18" s="0">
-        <v>0.019560000000000001</v>
+        <v>0.019439999999999999</v>
       </c>
       <c r="W18" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X18" s="0">
-        <v>0.021340000000000001</v>
+        <v>0.019130000000000001</v>
       </c>
       <c r="Y18" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Z18" s="0">
-        <v>0.02147</v>
+        <v>0.01899</v>
       </c>
       <c r="AA18" s="0">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AB18" s="0">
-        <v>0.020049999999999998</v>
+        <v>0.025270000000000001</v>
       </c>
       <c r="AC18" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AD18" s="0">
-        <v>0.020629999999999999</v>
+        <v>0.023130000000000001</v>
       </c>
       <c r="AE18" s="0">
         <v>6</v>
       </c>
       <c r="AF18" s="0">
-        <v>0.021520000000000001</v>
+        <v>0.01958</v>
       </c>
       <c r="AG18" s="0">
         <v>6</v>
       </c>
       <c r="AH18" s="0">
-        <v>0.022890000000000001</v>
+        <v>0.020219999999999998</v>
       </c>
       <c r="AI18" s="0">
         <v>6</v>
       </c>
       <c r="AJ18" s="0">
-        <v>0.0264</v>
+        <v>0.02121</v>
       </c>
       <c r="AK18" s="0">
         <v>6</v>
       </c>
       <c r="AL18" s="0">
-        <v>0.18348999999999999</v>
+        <v>0.022710000000000001</v>
+      </c>
+      <c r="AM18" s="0">
+        <v>7</v>
+      </c>
+      <c r="AN18" s="0">
+        <v>0.029250000000000002</v>
+      </c>
+      <c r="AO18" s="0">
+        <v>6</v>
+      </c>
+      <c r="AP18" s="0">
+        <v>0.11731</v>
       </c>
     </row>
     <row r="19">
@@ -2257,115 +2477,127 @@
         <v>7</v>
       </c>
       <c r="B19" s="0">
-        <v>0.076990000000000003</v>
+        <v>0.13916000000000001</v>
       </c>
       <c r="C19" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D19" s="0">
-        <v>0.062740000000000004</v>
+        <v>0.12559999999999999</v>
       </c>
       <c r="E19" s="0">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F19" s="0">
-        <v>0.052179999999999997</v>
+        <v>0.11631</v>
       </c>
       <c r="G19" s="0">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H19" s="0">
-        <v>0.04795</v>
+        <v>0.16821</v>
       </c>
       <c r="I19" s="0">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J19" s="0">
-        <v>0.033700000000000001</v>
+        <v>0.16106000000000001</v>
       </c>
       <c r="K19" s="0">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="L19" s="0">
-        <v>0.027859999999999999</v>
+        <v>0.14334</v>
       </c>
       <c r="M19" s="0">
         <v>7</v>
       </c>
       <c r="N19" s="0">
-        <v>0.024629999999999999</v>
+        <v>0.031140000000000001</v>
       </c>
       <c r="O19" s="0">
         <v>7</v>
       </c>
       <c r="P19" s="0">
-        <v>0.022859999999999998</v>
+        <v>0.026179999999999999</v>
       </c>
       <c r="Q19" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R19" s="0">
-        <v>0.021919999999999999</v>
+        <v>0.025600000000000001</v>
       </c>
       <c r="S19" s="0">
         <v>7</v>
       </c>
       <c r="T19" s="0">
-        <v>0.021499999999999998</v>
+        <v>0.02198</v>
       </c>
       <c r="U19" s="0">
         <v>7</v>
       </c>
       <c r="V19" s="0">
-        <v>0.021309999999999999</v>
+        <v>0.021219999999999999</v>
       </c>
       <c r="W19" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X19" s="0">
-        <v>0.023390000000000001</v>
+        <v>0.020889999999999999</v>
       </c>
       <c r="Y19" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Z19" s="0">
-        <v>0.023630000000000002</v>
+        <v>0.02078</v>
       </c>
       <c r="AA19" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AB19" s="0">
-        <v>0.021870000000000001</v>
+        <v>0.028139999999999998</v>
       </c>
       <c r="AC19" s="0">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AD19" s="0">
-        <v>0.02256</v>
+        <v>0.025590000000000002</v>
       </c>
       <c r="AE19" s="0">
         <v>7</v>
       </c>
       <c r="AF19" s="0">
-        <v>0.023570000000000001</v>
+        <v>0.021479999999999999</v>
       </c>
       <c r="AG19" s="0">
         <v>7</v>
       </c>
       <c r="AH19" s="0">
-        <v>0.025090000000000001</v>
+        <v>0.022200000000000001</v>
       </c>
       <c r="AI19" s="0">
         <v>7</v>
       </c>
       <c r="AJ19" s="0">
-        <v>0.028969999999999999</v>
+        <v>0.023269999999999999</v>
       </c>
       <c r="AK19" s="0">
         <v>7</v>
       </c>
       <c r="AL19" s="0">
-        <v>0.18820000000000001</v>
+        <v>0.02495</v>
+      </c>
+      <c r="AM19" s="0">
+        <v>8</v>
+      </c>
+      <c r="AN19" s="0">
+        <v>0.0322</v>
+      </c>
+      <c r="AO19" s="0">
+        <v>7</v>
+      </c>
+      <c r="AP19" s="0">
+        <v>0.12461</v>
       </c>
     </row>
     <row r="20">
@@ -2373,115 +2605,109 @@
         <v>8</v>
       </c>
       <c r="B20" s="0">
-        <v>0.085720000000000005</v>
+        <v>0.15082000000000001</v>
       </c>
       <c r="C20" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" s="0">
-        <v>0.066989999999999994</v>
+        <v>0.13503999999999999</v>
       </c>
       <c r="E20" s="0">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F20" s="0">
-        <v>0.05602</v>
-      </c>
-      <c r="G20" s="0">
-        <v>9</v>
-      </c>
-      <c r="H20" s="0">
-        <v>0.051709999999999999</v>
-      </c>
-      <c r="I20" s="0">
-        <v>8</v>
-      </c>
-      <c r="J20" s="0">
-        <v>0.036949999999999997</v>
-      </c>
-      <c r="K20" s="0">
-        <v>8</v>
-      </c>
-      <c r="L20" s="0">
-        <v>0.030550000000000001</v>
+        <v>0.12644</v>
       </c>
       <c r="M20" s="0">
         <v>8</v>
       </c>
       <c r="N20" s="0">
-        <v>0.026980000000000001</v>
+        <v>0.033529999999999997</v>
       </c>
       <c r="O20" s="0">
         <v>8</v>
       </c>
       <c r="P20" s="0">
-        <v>0.025010000000000001</v>
+        <v>0.02853</v>
       </c>
       <c r="Q20" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R20" s="0">
-        <v>0.023990000000000001</v>
+        <v>0.02801</v>
       </c>
       <c r="S20" s="0">
         <v>8</v>
       </c>
       <c r="T20" s="0">
-        <v>0.023550000000000001</v>
+        <v>0.024060000000000002</v>
       </c>
       <c r="U20" s="0">
         <v>8</v>
       </c>
       <c r="V20" s="0">
-        <v>0.023390000000000001</v>
+        <v>0.023230000000000001</v>
       </c>
       <c r="W20" s="0">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X20" s="0">
-        <v>0.026079999999999999</v>
+        <v>0.02291</v>
       </c>
       <c r="Y20" s="0">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Z20" s="0">
-        <v>0.026380000000000001</v>
+        <v>0.022780000000000002</v>
       </c>
       <c r="AA20" s="0">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AB20" s="0">
-        <v>0.02411</v>
+        <v>0.031890000000000002</v>
       </c>
       <c r="AC20" s="0">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AD20" s="0">
-        <v>0.024930000000000001</v>
+        <v>0.028549999999999999</v>
       </c>
       <c r="AE20" s="0">
         <v>8</v>
       </c>
       <c r="AF20" s="0">
-        <v>0.026100000000000002</v>
+        <v>0.023650000000000001</v>
       </c>
       <c r="AG20" s="0">
         <v>8</v>
       </c>
       <c r="AH20" s="0">
-        <v>0.027879999999999999</v>
+        <v>0.024459999999999999</v>
       </c>
       <c r="AI20" s="0">
         <v>8</v>
       </c>
       <c r="AJ20" s="0">
-        <v>0.032169999999999997</v>
+        <v>0.025680000000000001</v>
       </c>
       <c r="AK20" s="0">
         <v>8</v>
       </c>
       <c r="AL20" s="0">
-        <v>0.19355</v>
+        <v>0.02751</v>
+      </c>
+      <c r="AM20" s="0">
+        <v>9</v>
+      </c>
+      <c r="AN20" s="0">
+        <v>0.035740000000000001</v>
+      </c>
+      <c r="AO20" s="0">
+        <v>8</v>
+      </c>
+      <c r="AP20" s="0">
+        <v>0.13267999999999999</v>
       </c>
     </row>
     <row r="21">
@@ -2489,739 +2715,697 @@
         <v>9</v>
       </c>
       <c r="B21" s="0">
-        <v>0.090560000000000002</v>
+        <v>0.15705</v>
       </c>
       <c r="C21" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" s="0">
-        <v>0.07553</v>
+        <v>0.14316000000000001</v>
       </c>
       <c r="E21" s="0">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F21" s="0">
-        <v>0.061870000000000001</v>
-      </c>
-      <c r="G21" s="0">
-        <v>10</v>
-      </c>
-      <c r="H21" s="0">
-        <v>0.058250000000000003</v>
-      </c>
-      <c r="I21" s="0">
-        <v>9</v>
-      </c>
-      <c r="J21" s="0">
-        <v>0.040419999999999998</v>
-      </c>
-      <c r="K21" s="0">
-        <v>9</v>
-      </c>
-      <c r="L21" s="0">
-        <v>0.033390000000000003</v>
+        <v>0.13533999999999999</v>
       </c>
       <c r="M21" s="0">
         <v>9</v>
       </c>
       <c r="N21" s="0">
-        <v>0.02962</v>
+        <v>0.03662</v>
       </c>
       <c r="O21" s="0">
         <v>9</v>
       </c>
       <c r="P21" s="0">
-        <v>0.0275</v>
+        <v>0.03117</v>
       </c>
       <c r="Q21" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R21" s="0">
-        <v>0.026460000000000001</v>
+        <v>0.030769999999999999</v>
       </c>
       <c r="S21" s="0">
         <v>9</v>
       </c>
       <c r="T21" s="0">
-        <v>0.02607</v>
+        <v>0.0264</v>
       </c>
       <c r="U21" s="0">
         <v>9</v>
       </c>
       <c r="V21" s="0">
-        <v>0.02596</v>
+        <v>0.02554</v>
       </c>
       <c r="W21" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="X21" s="0">
-        <v>0.029309999999999999</v>
+        <v>0.025250000000000002</v>
       </c>
       <c r="Y21" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z21" s="0">
-        <v>0.029690000000000001</v>
+        <v>0.025170000000000001</v>
       </c>
       <c r="AA21" s="0">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AB21" s="0">
-        <v>0.02692</v>
+        <v>0.037249999999999998</v>
       </c>
       <c r="AC21" s="0">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AD21" s="0">
-        <v>0.027890000000000002</v>
+        <v>0.032570000000000002</v>
       </c>
       <c r="AE21" s="0">
         <v>9</v>
       </c>
       <c r="AF21" s="0">
-        <v>0.029340000000000001</v>
+        <v>0.026169999999999999</v>
       </c>
       <c r="AG21" s="0">
         <v>9</v>
       </c>
       <c r="AH21" s="0">
-        <v>0.031550000000000002</v>
+        <v>0.027119999999999998</v>
       </c>
       <c r="AI21" s="0">
         <v>9</v>
       </c>
       <c r="AJ21" s="0">
-        <v>0.036760000000000001</v>
+        <v>0.028510000000000001</v>
       </c>
       <c r="AK21" s="0">
         <v>9</v>
       </c>
       <c r="AL21" s="0">
-        <v>0.19950000000000001</v>
+        <v>0.03058</v>
+      </c>
+      <c r="AM21" s="0">
+        <v>10</v>
+      </c>
+      <c r="AN21" s="0">
+        <v>0.041059999999999999</v>
+      </c>
+      <c r="AO21" s="0">
+        <v>9</v>
+      </c>
+      <c r="AP21" s="0">
+        <v>0.14146</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
+        <v>10</v>
+      </c>
+      <c r="B22" s="0">
+        <v>0.16381000000000001</v>
+      </c>
+      <c r="C22" s="0">
         <v>11</v>
       </c>
-      <c r="B22" s="0">
-        <v>0.11909</v>
-      </c>
-      <c r="C22" s="0">
-        <v>10</v>
-      </c>
       <c r="D22" s="0">
-        <v>0.088539999999999994</v>
+        <v>0.15223</v>
       </c>
       <c r="E22" s="0">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F22" s="0">
-        <v>0.07077</v>
-      </c>
-      <c r="G22" s="0">
-        <v>11</v>
-      </c>
-      <c r="H22" s="0">
-        <v>0.064610000000000001</v>
-      </c>
-      <c r="I22" s="0">
-        <v>10</v>
-      </c>
-      <c r="J22" s="0">
-        <v>0.043839999999999997</v>
-      </c>
-      <c r="K22" s="0">
-        <v>10</v>
-      </c>
-      <c r="L22" s="0">
-        <v>0.036799999999999999</v>
+        <v>0.14643</v>
       </c>
       <c r="M22" s="0">
         <v>10</v>
       </c>
       <c r="N22" s="0">
-        <v>0.0327</v>
+        <v>0.040829999999999998</v>
       </c>
       <c r="O22" s="0">
         <v>10</v>
       </c>
       <c r="P22" s="0">
-        <v>0.03057</v>
+        <v>0.034270000000000002</v>
       </c>
       <c r="Q22" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R22" s="0">
-        <v>0.029690000000000001</v>
+        <v>0.03424</v>
       </c>
       <c r="S22" s="0">
         <v>10</v>
       </c>
       <c r="T22" s="0">
-        <v>0.02928</v>
+        <v>0.029069999999999999</v>
       </c>
       <c r="U22" s="0">
         <v>10</v>
       </c>
       <c r="V22" s="0">
-        <v>0.029159999999999999</v>
+        <v>0.028369999999999999</v>
       </c>
       <c r="W22" s="0">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X22" s="0">
-        <v>0.03363</v>
+        <v>0.02802</v>
       </c>
       <c r="Y22" s="0">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z22" s="0">
-        <v>0.0344</v>
+        <v>0.027969999999999998</v>
       </c>
       <c r="AA22" s="0">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AB22" s="0">
-        <v>0.03048</v>
+        <v>0.045449999999999997</v>
       </c>
       <c r="AC22" s="0">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AD22" s="0">
-        <v>0.031730000000000001</v>
+        <v>0.0385</v>
       </c>
       <c r="AE22" s="0">
         <v>10</v>
       </c>
       <c r="AF22" s="0">
-        <v>0.033649999999999999</v>
+        <v>0.029329999999999999</v>
       </c>
       <c r="AG22" s="0">
         <v>10</v>
       </c>
       <c r="AH22" s="0">
-        <v>0.036580000000000001</v>
+        <v>0.030519999999999999</v>
       </c>
       <c r="AI22" s="0">
         <v>10</v>
       </c>
       <c r="AJ22" s="0">
-        <v>0.043130000000000002</v>
+        <v>0.032300000000000002</v>
       </c>
       <c r="AK22" s="0">
         <v>10</v>
       </c>
       <c r="AL22" s="0">
-        <v>0.20596</v>
+        <v>0.03499</v>
+      </c>
+      <c r="AM22" s="0">
+        <v>11</v>
+      </c>
+      <c r="AN22" s="0">
+        <v>0.048959999999999997</v>
+      </c>
+      <c r="AO22" s="0">
+        <v>10</v>
+      </c>
+      <c r="AP22" s="0">
+        <v>0.15090000000000001</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
+        <v>11</v>
+      </c>
+      <c r="B23" s="0">
+        <v>0.17407</v>
+      </c>
+      <c r="C23" s="0">
+        <v>12</v>
+      </c>
+      <c r="D23" s="0">
+        <v>0.16051000000000001</v>
+      </c>
+      <c r="E23" s="0">
         <v>13</v>
       </c>
-      <c r="B23" s="0">
-        <v>0.14408000000000001</v>
-      </c>
-      <c r="C23" s="0">
-        <v>14</v>
-      </c>
-      <c r="D23" s="0">
-        <v>0.14505000000000001</v>
-      </c>
-      <c r="E23" s="0">
-        <v>11</v>
-      </c>
       <c r="F23" s="0">
-        <v>0.083129999999999996</v>
-      </c>
-      <c r="G23" s="0">
-        <v>12</v>
-      </c>
-      <c r="H23" s="0">
-        <v>0.073940000000000006</v>
-      </c>
-      <c r="I23" s="0">
-        <v>11</v>
-      </c>
-      <c r="J23" s="0">
-        <v>0.04906</v>
-      </c>
-      <c r="K23" s="0">
-        <v>11</v>
-      </c>
-      <c r="L23" s="0">
-        <v>0.040849999999999998</v>
+        <v>0.15323000000000001</v>
       </c>
       <c r="M23" s="0">
         <v>11</v>
       </c>
       <c r="N23" s="0">
-        <v>0.036479999999999999</v>
+        <v>0.046120000000000001</v>
       </c>
       <c r="O23" s="0">
         <v>11</v>
       </c>
       <c r="P23" s="0">
-        <v>0.034750000000000003</v>
+        <v>0.037960000000000001</v>
       </c>
       <c r="Q23" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="R23" s="0">
-        <v>0.03363</v>
+        <v>0.038800000000000001</v>
       </c>
       <c r="S23" s="0">
         <v>11</v>
       </c>
       <c r="T23" s="0">
-        <v>0.033279999999999997</v>
+        <v>0.032620000000000003</v>
       </c>
       <c r="U23" s="0">
         <v>11</v>
       </c>
       <c r="V23" s="0">
-        <v>0.033279999999999997</v>
+        <v>0.031730000000000001</v>
       </c>
       <c r="W23" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X23" s="0">
-        <v>0.040189999999999997</v>
+        <v>0.031510000000000003</v>
       </c>
       <c r="Y23" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z23" s="0">
-        <v>0.04163</v>
+        <v>0.031539999999999999</v>
       </c>
       <c r="AA23" s="0">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AB23" s="0">
-        <v>0.035639999999999998</v>
+        <v>0.057290000000000001</v>
       </c>
       <c r="AC23" s="0">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AD23" s="0">
-        <v>0.037560000000000003</v>
+        <v>0.047559999999999998</v>
       </c>
       <c r="AE23" s="0">
         <v>11</v>
       </c>
       <c r="AF23" s="0">
-        <v>0.040230000000000002</v>
+        <v>0.033680000000000002</v>
       </c>
       <c r="AG23" s="0">
         <v>11</v>
       </c>
       <c r="AH23" s="0">
-        <v>0.0441</v>
+        <v>0.035380000000000002</v>
       </c>
       <c r="AI23" s="0">
         <v>11</v>
       </c>
       <c r="AJ23" s="0">
-        <v>0.052069999999999998</v>
+        <v>0.037810000000000003</v>
       </c>
       <c r="AK23" s="0">
         <v>11</v>
       </c>
       <c r="AL23" s="0">
-        <v>0.21289</v>
+        <v>0.041430000000000002</v>
+      </c>
+      <c r="AM23" s="0">
+        <v>12</v>
+      </c>
+      <c r="AN23" s="0">
+        <v>0.059929999999999997</v>
+      </c>
+      <c r="AO23" s="0">
+        <v>11</v>
+      </c>
+      <c r="AP23" s="0">
+        <v>0.16095999999999999</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
+        <v>12</v>
+      </c>
+      <c r="B24" s="0">
+        <v>0.17851</v>
+      </c>
+      <c r="C24" s="0">
+        <v>13</v>
+      </c>
+      <c r="D24" s="0">
+        <v>0.16903000000000001</v>
+      </c>
+      <c r="E24" s="0">
         <v>14</v>
       </c>
-      <c r="B24" s="0">
-        <v>0.15046999999999999</v>
-      </c>
-      <c r="C24" s="0">
-        <v>15</v>
-      </c>
-      <c r="D24" s="0">
-        <v>0.15125</v>
-      </c>
-      <c r="E24" s="0">
-        <v>12</v>
-      </c>
       <c r="F24" s="0">
-        <v>0.093859999999999999</v>
-      </c>
-      <c r="G24" s="0">
-        <v>13</v>
-      </c>
-      <c r="H24" s="0">
-        <v>0.093609999999999999</v>
-      </c>
-      <c r="I24" s="0">
-        <v>12</v>
-      </c>
-      <c r="J24" s="0">
-        <v>0.054489999999999997</v>
-      </c>
-      <c r="K24" s="0">
-        <v>12</v>
-      </c>
-      <c r="L24" s="0">
-        <v>0.045659999999999999</v>
+        <v>0.16403999999999999</v>
       </c>
       <c r="M24" s="0">
         <v>12</v>
       </c>
       <c r="N24" s="0">
-        <v>0.042070000000000003</v>
+        <v>0.050790000000000002</v>
       </c>
       <c r="O24" s="0">
         <v>12</v>
       </c>
       <c r="P24" s="0">
-        <v>0.039849999999999997</v>
+        <v>0.042259999999999999</v>
       </c>
       <c r="Q24" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R24" s="0">
-        <v>0.038870000000000002</v>
+        <v>0.044450000000000003</v>
       </c>
       <c r="S24" s="0">
         <v>12</v>
       </c>
       <c r="T24" s="0">
-        <v>0.038710000000000001</v>
+        <v>0.036940000000000001</v>
       </c>
       <c r="U24" s="0">
         <v>12</v>
       </c>
       <c r="V24" s="0">
-        <v>0.039199999999999999</v>
+        <v>0.03619</v>
       </c>
       <c r="W24" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X24" s="0">
-        <v>0.049590000000000002</v>
+        <v>0.036159999999999998</v>
       </c>
       <c r="Y24" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z24" s="0">
-        <v>0.051709999999999999</v>
+        <v>0.036510000000000001</v>
       </c>
       <c r="AA24" s="0">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AB24" s="0">
-        <v>0.043589999999999997</v>
+        <v>0.071980000000000002</v>
       </c>
       <c r="AC24" s="0">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AD24" s="0">
-        <v>0.04623</v>
+        <v>0.060159999999999998</v>
       </c>
       <c r="AE24" s="0">
         <v>12</v>
       </c>
       <c r="AF24" s="0">
-        <v>0.049779999999999998</v>
+        <v>0.040320000000000002</v>
       </c>
       <c r="AG24" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH24" s="0">
-        <v>0.054879999999999998</v>
+        <v>0.053460000000000001</v>
       </c>
       <c r="AI24" s="0">
         <v>12</v>
       </c>
       <c r="AJ24" s="0">
-        <v>0.064019999999999994</v>
+        <v>0.046100000000000002</v>
       </c>
       <c r="AK24" s="0">
         <v>12</v>
       </c>
       <c r="AL24" s="0">
-        <v>0.22023999999999999</v>
+        <v>0.050560000000000001</v>
+      </c>
+      <c r="AM24" s="0">
+        <v>13</v>
+      </c>
+      <c r="AN24" s="0">
+        <v>0.075660000000000005</v>
+      </c>
+      <c r="AO24" s="0">
+        <v>12</v>
+      </c>
+      <c r="AP24" s="0">
+        <v>0.17158999999999999</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
+        <v>13</v>
+      </c>
+      <c r="B25" s="0">
+        <v>0.18582000000000001</v>
+      </c>
+      <c r="C25" s="0">
+        <v>14</v>
+      </c>
+      <c r="D25" s="0">
+        <v>0.17730000000000001</v>
+      </c>
+      <c r="E25" s="0">
         <v>15</v>
       </c>
-      <c r="B25" s="0">
-        <v>0.16186</v>
-      </c>
-      <c r="E25" s="0">
-        <v>13</v>
-      </c>
       <c r="F25" s="0">
-        <v>0.12151000000000001</v>
-      </c>
-      <c r="I25" s="0">
-        <v>13</v>
-      </c>
-      <c r="J25" s="0">
-        <v>0.062080000000000003</v>
-      </c>
-      <c r="K25" s="0">
-        <v>13</v>
-      </c>
-      <c r="L25" s="0">
-        <v>0.052010000000000001</v>
+        <v>0.17241999999999999</v>
       </c>
       <c r="M25" s="0">
         <v>13</v>
       </c>
       <c r="N25" s="0">
-        <v>0.048910000000000002</v>
+        <v>0.07911</v>
       </c>
       <c r="O25" s="0">
         <v>13</v>
       </c>
       <c r="P25" s="0">
-        <v>0.046679999999999999</v>
+        <v>0.048370000000000003</v>
       </c>
       <c r="Q25" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="R25" s="0">
-        <v>0.04625</v>
+        <v>0.051950000000000003</v>
       </c>
       <c r="S25" s="0">
         <v>13</v>
       </c>
       <c r="T25" s="0">
-        <v>0.04693</v>
+        <v>0.042590000000000003</v>
       </c>
       <c r="U25" s="0">
         <v>13</v>
       </c>
       <c r="V25" s="0">
-        <v>0.048030000000000003</v>
+        <v>0.042439999999999999</v>
       </c>
       <c r="W25" s="0">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X25" s="0">
-        <v>0.06241</v>
+        <v>0.042880000000000001</v>
       </c>
       <c r="Y25" s="0">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z25" s="0">
-        <v>0.065210000000000004</v>
-      </c>
-      <c r="AA25" s="0">
-        <v>13</v>
-      </c>
-      <c r="AB25" s="0">
-        <v>0.054440000000000002</v>
+        <v>0.043819999999999998</v>
       </c>
       <c r="AC25" s="0">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD25" s="0">
-        <v>0.057869999999999998</v>
+        <v>0.07535</v>
       </c>
       <c r="AE25" s="0">
         <v>13</v>
       </c>
       <c r="AF25" s="0">
-        <v>0.062600000000000003</v>
+        <v>0.050200000000000002</v>
       </c>
       <c r="AG25" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH25" s="0">
-        <v>0.068479999999999999</v>
+        <v>0.067320000000000005</v>
       </c>
       <c r="AI25" s="0">
         <v>13</v>
       </c>
       <c r="AJ25" s="0">
-        <v>0.078990000000000005</v>
+        <v>0.057320000000000003</v>
       </c>
       <c r="AK25" s="0">
         <v>13</v>
       </c>
       <c r="AL25" s="0">
-        <v>0.22806000000000001</v>
+        <v>0.062059999999999997</v>
+      </c>
+      <c r="AM25" s="0">
+        <v>14</v>
+      </c>
+      <c r="AN25" s="0">
+        <v>0.092630000000000004</v>
+      </c>
+      <c r="AO25" s="0">
+        <v>13</v>
+      </c>
+      <c r="AP25" s="0">
+        <v>0.18275</v>
       </c>
     </row>
     <row r="26">
-      <c r="I26" s="0">
+      <c r="A26" s="0">
         <v>14</v>
       </c>
-      <c r="J26" s="0">
-        <v>0.076939999999999995</v>
-      </c>
-      <c r="K26" s="0">
-        <v>14</v>
-      </c>
-      <c r="L26" s="0">
-        <v>0.063280000000000003</v>
+      <c r="B26" s="0">
+        <v>0.19416</v>
+      </c>
+      <c r="C26" s="0">
+        <v>15</v>
+      </c>
+      <c r="D26" s="0">
+        <v>0.18554999999999999</v>
       </c>
       <c r="M26" s="0">
         <v>14</v>
       </c>
       <c r="N26" s="0">
-        <v>0.058160000000000003</v>
+        <v>0.082619999999999999</v>
       </c>
       <c r="O26" s="0">
         <v>14</v>
       </c>
       <c r="P26" s="0">
-        <v>0.05645</v>
+        <v>0.057579999999999999</v>
       </c>
       <c r="Q26" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R26" s="0">
-        <v>0.05704</v>
+        <v>0.063409999999999994</v>
       </c>
       <c r="S26" s="0">
         <v>14</v>
       </c>
       <c r="T26" s="0">
-        <v>0.058160000000000003</v>
+        <v>0.05108</v>
       </c>
       <c r="U26" s="0">
         <v>14</v>
       </c>
       <c r="V26" s="0">
-        <v>0.060060000000000002</v>
+        <v>0.05153</v>
       </c>
       <c r="W26" s="0">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="X26" s="0">
-        <v>0.078560000000000005</v>
+        <v>0.05287</v>
       </c>
       <c r="Y26" s="0">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Z26" s="0">
-        <v>0.082519999999999996</v>
-      </c>
-      <c r="AA26" s="0">
-        <v>14</v>
-      </c>
-      <c r="AB26" s="0">
-        <v>0.068890000000000007</v>
-      </c>
-      <c r="AC26" s="0">
-        <v>14</v>
-      </c>
-      <c r="AD26" s="0">
-        <v>0.073690000000000005</v>
+        <v>0.054850000000000003</v>
       </c>
       <c r="AE26" s="0">
         <v>14</v>
       </c>
       <c r="AF26" s="0">
-        <v>0.078960000000000002</v>
+        <v>0.063500000000000001</v>
       </c>
       <c r="AG26" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH26" s="0">
-        <v>0.085260000000000002</v>
+        <v>0.083680000000000004</v>
       </c>
       <c r="AI26" s="0">
         <v>14</v>
       </c>
       <c r="AJ26" s="0">
-        <v>0.096970000000000001</v>
+        <v>0.072169999999999998</v>
       </c>
       <c r="AK26" s="0">
         <v>14</v>
       </c>
       <c r="AL26" s="0">
-        <v>0.23635999999999999</v>
+        <v>0.078399999999999998</v>
+      </c>
+      <c r="AM26" s="0">
+        <v>15</v>
+      </c>
+      <c r="AN26" s="0">
+        <v>0.13886000000000001</v>
+      </c>
+      <c r="AO26" s="0">
+        <v>14</v>
+      </c>
+      <c r="AP26" s="0">
+        <v>0.19441</v>
       </c>
     </row>
     <row r="27">
-      <c r="I27" s="0">
+      <c r="A27" s="0">
         <v>15</v>
       </c>
-      <c r="J27" s="0">
-        <v>0.11260000000000001</v>
-      </c>
-      <c r="K27" s="0">
-        <v>15</v>
-      </c>
-      <c r="L27" s="0">
-        <v>0.079500000000000001</v>
-      </c>
-      <c r="M27" s="0">
-        <v>15</v>
-      </c>
-      <c r="N27" s="0">
-        <v>0.071370000000000003</v>
+      <c r="B27" s="0">
+        <v>0.20283999999999999</v>
       </c>
       <c r="O27" s="0">
         <v>15</v>
       </c>
       <c r="P27" s="0">
-        <v>0.07016</v>
-      </c>
-      <c r="Q27" s="0">
-        <v>15</v>
-      </c>
-      <c r="R27" s="0">
-        <v>0.071440000000000003</v>
+        <v>0.073080000000000006</v>
       </c>
       <c r="S27" s="0">
         <v>15</v>
       </c>
       <c r="T27" s="0">
-        <v>0.073150000000000007</v>
+        <v>0.062859999999999999</v>
       </c>
       <c r="U27" s="0">
         <v>15</v>
       </c>
       <c r="V27" s="0">
-        <v>0.075550000000000006</v>
-      </c>
-      <c r="AA27" s="0">
+        <v>0.064479999999999996</v>
+      </c>
+      <c r="W27" s="0">
         <v>15</v>
       </c>
-      <c r="AB27" s="0">
-        <v>0.086800000000000002</v>
-      </c>
-      <c r="AC27" s="0">
+      <c r="X27" s="0">
+        <v>0.066820000000000004</v>
+      </c>
+      <c r="Y27" s="0">
         <v>15</v>
       </c>
-      <c r="AD27" s="0">
-        <v>0.091850000000000001</v>
+      <c r="Z27" s="0">
+        <v>0.069190000000000002</v>
       </c>
       <c r="AE27" s="0">
         <v>15</v>
       </c>
       <c r="AF27" s="0">
-        <v>0.097879999999999995</v>
-      </c>
-      <c r="AG27" s="0">
-        <v>15</v>
-      </c>
-      <c r="AH27" s="0">
-        <v>0.10458000000000001</v>
+        <v>0.078979999999999995</v>
       </c>
       <c r="AI27" s="0">
         <v>15</v>
       </c>
       <c r="AJ27" s="0">
-        <v>0.11896</v>
+        <v>0.089010000000000006</v>
       </c>
       <c r="AK27" s="0">
         <v>15</v>
       </c>
       <c r="AL27" s="0">
-        <v>0.24515000000000001</v>
+        <v>0.097049999999999997</v>
+      </c>
+      <c r="AO27" s="0">
+        <v>15</v>
+      </c>
+      <c r="AP27" s="0">
+        <v>0.20652000000000001</v>
       </c>
     </row>
   </sheetData>
